--- a/fund_occupation_template.xlsx
+++ b/fund_occupation_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9947"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>合同编号</t>
   </si>
@@ -63,55 +63,73 @@
     <t>G-A001</t>
   </si>
   <si>
+    <t>您</t>
+  </si>
+  <si>
+    <t>沥青</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>G-A002</t>
+  </si>
+  <si>
+    <t>您您</t>
+  </si>
+  <si>
+    <t>原料油</t>
+  </si>
+  <si>
+    <t>我我</t>
+  </si>
+  <si>
+    <t>G-A003</t>
+  </si>
+  <si>
+    <t>您您您</t>
+  </si>
+  <si>
+    <t>渣油</t>
+  </si>
+  <si>
+    <t>我我我</t>
+  </si>
+  <si>
+    <t>资金占用和资金占用利息的计算以收支记录中最后一笔收支的时间为止（如本表中最晚的一条收支记录是1.31）</t>
+  </si>
+  <si>
+    <t>合同号</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>付款/收款单位</t>
+  </si>
+  <si>
+    <t>收款金额</t>
+  </si>
+  <si>
+    <t>付款金额</t>
+  </si>
+  <si>
     <t>中海油</t>
   </si>
   <si>
-    <t>沥青</t>
+    <t>山东海化集团</t>
+  </si>
+  <si>
+    <t>大连石油</t>
   </si>
   <si>
     <t>山东清怡山</t>
   </si>
   <si>
-    <t>G-A002</t>
-  </si>
-  <si>
-    <t>山东海化集团</t>
-  </si>
-  <si>
-    <t>原料油</t>
-  </si>
-  <si>
     <t>盘锦恒松</t>
   </si>
   <si>
-    <t>G-A003</t>
-  </si>
-  <si>
-    <t>大连石油</t>
-  </si>
-  <si>
-    <t>渣油</t>
-  </si>
-  <si>
     <t>山东星实凯润</t>
-  </si>
-  <si>
-    <t>资金占用和资金占用利息的计算以收支记录中最后一笔收支的时间为止（如本表中最晚的一条收支记录是1.31）</t>
-  </si>
-  <si>
-    <t>合同号</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>付款/收款单位</t>
-  </si>
-  <si>
-    <t>收款金额</t>
-  </si>
-  <si>
-    <t>付款金额</t>
   </si>
   <si>
     <t>付款/收款金额</t>
@@ -128,11 +146,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -144,7 +162,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,19 +175,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,62 +197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,17 +219,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,9 +242,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,13 +314,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,169 +482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,16 +509,58 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,20 +580,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,192 +620,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -756,72 +774,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -950,7 +968,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -974,9 +992,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1000,7 +1018,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1053,7 +1071,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1078,7 +1096,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1093,20 +1111,20 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.87962962962963" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="15.8796296296296" customWidth="1"/>
-    <col min="7" max="10" width="14.3796296296296" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="9.75" customWidth="1"/>
-    <col min="14" max="14" width="10.6296296296296" customWidth="1"/>
-    <col min="15" max="15" width="13.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="9.88333333333333" customWidth="true"/>
+    <col min="2" max="2" width="12.25" customWidth="true"/>
+    <col min="6" max="6" width="15.8833333333333" customWidth="true"/>
+    <col min="7" max="10" width="14.3833333333333" customWidth="true"/>
+    <col min="11" max="11" width="16.25" customWidth="true"/>
+    <col min="12" max="12" width="16.5" customWidth="true"/>
+    <col min="13" max="13" width="9.75" customWidth="true"/>
+    <col min="14" max="14" width="10.6333333333333" customWidth="true"/>
+    <col min="15" max="15" width="13.1083333333333" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1302,16 +1320,16 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.3796296296296" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="15.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="14.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="10.3833333333333" customWidth="true"/>
+    <col min="2" max="2" width="13" customWidth="true"/>
+    <col min="3" max="3" width="16.5" customWidth="true"/>
+    <col min="4" max="4" width="15.6333333333333" customWidth="true"/>
+    <col min="5" max="5" width="14.8833333333333" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:5">
+    <row r="1" ht="18" customHeight="true" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1328,7 +1346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:5">
+    <row r="2" ht="18" customHeight="true" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1336,14 +1354,14 @@
         <v>43440</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4">
         <v>500000</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
+    <row r="3" ht="18" customHeight="true" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1351,14 +1369,14 @@
         <v>43469</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4">
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:5">
+    <row r="4" ht="18" customHeight="true" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1366,14 +1384,14 @@
         <v>43444</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4">
         <v>2500000</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:5">
+    <row r="5" ht="18" customHeight="true" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1381,14 +1399,14 @@
         <v>43465</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4">
         <v>2000000</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:5">
+    <row r="6" ht="18" customHeight="true" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1396,14 +1414,14 @@
         <v>43480</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="4">
         <v>5000000</v>
       </c>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:5">
+    <row r="7" ht="18" customHeight="true" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1411,14 +1429,14 @@
         <v>43485</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="4">
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:5">
+    <row r="8" ht="18" customHeight="true" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1426,7 +1444,7 @@
         <v>43475</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="4">
@@ -1434,7 +1452,7 @@
         <v>783325</v>
       </c>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:5">
+    <row r="9" ht="18" customHeight="true" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1442,7 +1460,7 @@
         <v>43485</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="4">
@@ -1450,7 +1468,7 @@
         <v>8654480</v>
       </c>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:5">
+    <row r="10" ht="18" customHeight="true" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1458,7 +1476,7 @@
         <v>43486</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4">
@@ -1466,7 +1484,7 @@
         <v>5104000</v>
       </c>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:5">
+    <row r="11" ht="18" customHeight="true" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1474,14 +1492,14 @@
         <v>43466</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4">
         <v>1000000</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:5">
+    <row r="12" ht="18" customHeight="true" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1489,14 +1507,14 @@
         <v>43475</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4">
         <v>1000000</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" ht="18" customHeight="1" spans="1:5">
+    <row r="13" ht="18" customHeight="true" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1504,14 +1522,14 @@
         <v>43490</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4">
         <v>2000000</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:5">
+    <row r="14" ht="18" customHeight="true" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1519,14 +1537,14 @@
         <v>43473</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4">
         <v>1200000</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" ht="18" customHeight="1" spans="1:5">
+    <row r="15" ht="18" customHeight="true" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1534,14 +1552,14 @@
         <v>43485</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4">
         <v>4000000</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:5">
+    <row r="16" ht="18" customHeight="true" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1549,14 +1567,14 @@
         <v>43496</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D16" s="4">
         <v>3000000</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:5">
+    <row r="17" ht="18" customHeight="true" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1564,14 +1582,14 @@
         <v>43485</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4">
         <v>1000000</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" ht="18" customHeight="1" spans="1:5">
+    <row r="18" ht="18" customHeight="true" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1579,7 +1597,7 @@
         <v>43496</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4">
         <v>12102400</v>
@@ -1594,7 +1612,7 @@
         <v>43490</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D19" s="4">
         <v>169984</v>
@@ -1615,18 +1633,18 @@
       <selection activeCell="J59" sqref="H59:J59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="11.5"/>
-    <col min="2" max="2" width="17.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="18.3796296296296" customWidth="1"/>
-    <col min="4" max="4" width="16.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="18.8796296296296" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="12.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="17.6333333333333" customWidth="true"/>
+    <col min="3" max="3" width="18.3833333333333" customWidth="true"/>
+    <col min="4" max="4" width="16.6333333333333" customWidth="true"/>
+    <col min="5" max="5" width="19.5" customWidth="true"/>
+    <col min="6" max="6" width="18.8833333333333" customWidth="true"/>
+    <col min="7" max="7" width="14" customWidth="true"/>
+    <col min="8" max="8" width="17.25" customWidth="true"/>
+    <col min="9" max="9" width="17" customWidth="true"/>
+    <col min="10" max="10" width="12.3833333333333" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1652,31 +1670,31 @@
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3235,7 +3253,7 @@
         <v>2320.8</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1" spans="1:10">
+    <row r="55" ht="15" customHeight="true" spans="1:10">
       <c r="A55" s="3">
         <f t="shared" si="13"/>
         <v>43492</v>
@@ -3432,7 +3450,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D38" formula="1"/>
+    <ignoredError sqref="D38" formula="true"/>
   </ignoredErrors>
 </worksheet>
 </file>